--- a/All AutoText Index.xlsx
+++ b/All AutoText Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Documents\GitHub\SDI_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75AE229-B2ED-4F91-BD8C-05CD33168F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528AE4A-E537-460D-BB13-56B53AC26053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17310" yWindow="1740" windowWidth="29340" windowHeight="15570" activeTab="1" xr2:uid="{9913C9D4-04A4-4B48-B591-6E761B065B25}"/>
+    <workbookView minimized="1" xWindow="42810" yWindow="4050" windowWidth="29340" windowHeight="15585" activeTab="1" xr2:uid="{9913C9D4-04A4-4B48-B591-6E761B065B25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="1247">
   <si>
     <t>AIR CURTAIN</t>
   </si>
@@ -2587,9 +2587,6 @@
     <t>CHEESEMELTER_Imperial Range_ICMA-36</t>
   </si>
   <si>
-    <t>CHEF=S COUNTER WITH SINK_Custom Fabrication_Stainless Steel</t>
-  </si>
-  <si>
     <t>CHOCOLATE MELTING MACHINE_Hilliard=s_Little Dipper</t>
   </si>
   <si>
@@ -3764,6 +3761,12 @@
   </si>
   <si>
     <t>PREPARATION COOLER</t>
+  </si>
+  <si>
+    <t>CONDIMENT COUNTER_Custom Fabrication_SS-Millwork</t>
+  </si>
+  <si>
+    <t>HOT WATER DISPENSER_Bunn_HW2 SST</t>
   </si>
 </sst>
 </file>
@@ -4160,8 +4163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3837B429-5C39-46F0-BEEE-19A2C73BE836}">
   <dimension ref="A1:M457"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A58" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,10 +4184,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I1" t="s">
         <v>1232</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4204,7 +4207,7 @@
         <v>389</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4993,7 +4996,7 @@
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -5351,7 +5354,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5912,7 +5915,7 @@
         <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -6002,7 +6005,7 @@
         <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6021,7 +6024,7 @@
         <v>70</v>
       </c>
       <c r="K71" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -6035,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>44</v>
@@ -6048,7 +6051,7 @@
         <v>71</v>
       </c>
       <c r="K72" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6075,7 +6078,7 @@
         <v>72</v>
       </c>
       <c r="K73" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6102,7 +6105,7 @@
         <v>73</v>
       </c>
       <c r="K74" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -6129,7 +6132,7 @@
         <v>74</v>
       </c>
       <c r="K75" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -6156,7 +6159,7 @@
         <v>75</v>
       </c>
       <c r="K76" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6183,7 +6186,7 @@
         <v>76</v>
       </c>
       <c r="K77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6210,7 +6213,7 @@
         <v>77</v>
       </c>
       <c r="K78" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6237,7 +6240,7 @@
         <v>78</v>
       </c>
       <c r="K79" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -6264,7 +6267,7 @@
         <v>79</v>
       </c>
       <c r="K80" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -6291,7 +6294,7 @@
         <v>80</v>
       </c>
       <c r="K81" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -6339,7 +6342,7 @@
         <v>82</v>
       </c>
       <c r="K83" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -6366,7 +6369,7 @@
         <v>83</v>
       </c>
       <c r="K84" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -6414,7 +6417,7 @@
         <v>85</v>
       </c>
       <c r="K86" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -6441,7 +6444,7 @@
         <v>86</v>
       </c>
       <c r="K87" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -6468,7 +6471,7 @@
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -6495,7 +6498,7 @@
       </c>
       <c r="J89" s="3"/>
       <c r="K89" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L89" s="3"/>
     </row>
@@ -6522,7 +6525,7 @@
         <v>89</v>
       </c>
       <c r="K90" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -6549,7 +6552,7 @@
       </c>
       <c r="J91" s="3"/>
       <c r="K91" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -6575,7 +6578,7 @@
         <v>91</v>
       </c>
       <c r="K92" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -6602,7 +6605,7 @@
         <v>92</v>
       </c>
       <c r="K93" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -6629,7 +6632,7 @@
         <v>93</v>
       </c>
       <c r="K94" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -6656,7 +6659,7 @@
         <v>94</v>
       </c>
       <c r="K95" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -6683,7 +6686,7 @@
         <v>95</v>
       </c>
       <c r="K96" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -6710,7 +6713,7 @@
         <v>96</v>
       </c>
       <c r="K97" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -6737,7 +6740,7 @@
         <v>97</v>
       </c>
       <c r="K98" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -6785,7 +6788,7 @@
         <v>99</v>
       </c>
       <c r="K100" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -6812,7 +6815,7 @@
         <v>100</v>
       </c>
       <c r="K101" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -6839,7 +6842,7 @@
         <v>101</v>
       </c>
       <c r="K102" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -6866,7 +6869,7 @@
         <v>102</v>
       </c>
       <c r="K103" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -6893,7 +6896,7 @@
         <v>103</v>
       </c>
       <c r="K104" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -6920,7 +6923,7 @@
         <v>104</v>
       </c>
       <c r="K105" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -6947,7 +6950,7 @@
         <v>105</v>
       </c>
       <c r="K106" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -6974,7 +6977,7 @@
       </c>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -7000,7 +7003,7 @@
         <v>107</v>
       </c>
       <c r="K108" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -7026,7 +7029,7 @@
         <v>108</v>
       </c>
       <c r="K109" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -7052,7 +7055,7 @@
         <v>109</v>
       </c>
       <c r="K110" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -7079,7 +7082,7 @@
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -7105,7 +7108,7 @@
         <v>111</v>
       </c>
       <c r="K112" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -7132,7 +7135,7 @@
         <v>112</v>
       </c>
       <c r="K113" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -7159,7 +7162,7 @@
         <v>113</v>
       </c>
       <c r="K114" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -7186,7 +7189,7 @@
         <v>114</v>
       </c>
       <c r="K115" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -7213,7 +7216,7 @@
         <v>115</v>
       </c>
       <c r="K116" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -7240,7 +7243,7 @@
         <v>116</v>
       </c>
       <c r="K117" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -7267,7 +7270,7 @@
         <v>117</v>
       </c>
       <c r="K118" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -7294,7 +7297,7 @@
         <v>118</v>
       </c>
       <c r="K119" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -7321,7 +7324,7 @@
         <v>119</v>
       </c>
       <c r="K120" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -7348,7 +7351,7 @@
         <v>120</v>
       </c>
       <c r="K121" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -7375,7 +7378,7 @@
         <v>121</v>
       </c>
       <c r="K122" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -7402,7 +7405,7 @@
         <v>122</v>
       </c>
       <c r="K123" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -7429,7 +7432,7 @@
         <v>123</v>
       </c>
       <c r="K124" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -7456,7 +7459,7 @@
         <v>124</v>
       </c>
       <c r="K125" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -7483,7 +7486,7 @@
         <v>125</v>
       </c>
       <c r="K126" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -7510,7 +7513,7 @@
         <v>126</v>
       </c>
       <c r="K127" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -7537,7 +7540,7 @@
         <v>127</v>
       </c>
       <c r="K128" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -7564,7 +7567,7 @@
         <v>128</v>
       </c>
       <c r="K129" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -7591,7 +7594,7 @@
         <v>129</v>
       </c>
       <c r="K130" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -7618,7 +7621,7 @@
         <v>130</v>
       </c>
       <c r="K131" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -7645,7 +7648,7 @@
         <v>131</v>
       </c>
       <c r="K132" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -7672,7 +7675,7 @@
         <v>132</v>
       </c>
       <c r="K133" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -7699,7 +7702,7 @@
         <v>133</v>
       </c>
       <c r="K134" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -7726,7 +7729,7 @@
         <v>134</v>
       </c>
       <c r="K135" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -7753,7 +7756,7 @@
         <v>136</v>
       </c>
       <c r="K136" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -7780,7 +7783,7 @@
         <v>137</v>
       </c>
       <c r="K137" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -7807,7 +7810,7 @@
         <v>135</v>
       </c>
       <c r="K138" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -7834,7 +7837,7 @@
         <v>138</v>
       </c>
       <c r="K139" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -7861,7 +7864,7 @@
         <v>139</v>
       </c>
       <c r="K140" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -7888,7 +7891,7 @@
         <v>140</v>
       </c>
       <c r="K141" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -7915,7 +7918,7 @@
         <v>141</v>
       </c>
       <c r="K142" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -7942,7 +7945,7 @@
         <v>142</v>
       </c>
       <c r="K143" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -7969,7 +7972,7 @@
         <v>143</v>
       </c>
       <c r="K144" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -7996,7 +7999,7 @@
         <v>144</v>
       </c>
       <c r="K145" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -8023,7 +8026,7 @@
         <v>145</v>
       </c>
       <c r="K146" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -8050,7 +8053,7 @@
         <v>146</v>
       </c>
       <c r="K147" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -8077,7 +8080,7 @@
         <v>147</v>
       </c>
       <c r="K148" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -8104,7 +8107,7 @@
         <v>148</v>
       </c>
       <c r="K149" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -8131,7 +8134,7 @@
         <v>149</v>
       </c>
       <c r="K150" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -8158,7 +8161,7 @@
         <v>150</v>
       </c>
       <c r="K151" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -8185,7 +8188,7 @@
         <v>151</v>
       </c>
       <c r="K152" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -8212,7 +8215,7 @@
         <v>152</v>
       </c>
       <c r="K153" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -8239,7 +8242,7 @@
         <v>153</v>
       </c>
       <c r="K154" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -8266,7 +8269,7 @@
         <v>154</v>
       </c>
       <c r="K155" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -8293,7 +8296,7 @@
         <v>156</v>
       </c>
       <c r="K156" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -8320,7 +8323,7 @@
         <v>155</v>
       </c>
       <c r="K157" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -8347,7 +8350,7 @@
         <v>157</v>
       </c>
       <c r="K158" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -8374,7 +8377,7 @@
         <v>158</v>
       </c>
       <c r="K159" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -8401,7 +8404,7 @@
         <v>159</v>
       </c>
       <c r="K160" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -8428,7 +8431,7 @@
         <v>161</v>
       </c>
       <c r="K161" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -8455,7 +8458,7 @@
         <v>160</v>
       </c>
       <c r="K162" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -8482,7 +8485,7 @@
         <v>163</v>
       </c>
       <c r="K163" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -8509,7 +8512,7 @@
         <v>162</v>
       </c>
       <c r="K164" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -8536,7 +8539,7 @@
         <v>164</v>
       </c>
       <c r="K165" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -8563,7 +8566,7 @@
         <v>165</v>
       </c>
       <c r="K166" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -8590,7 +8593,7 @@
         <v>166</v>
       </c>
       <c r="K167" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -8617,7 +8620,7 @@
         <v>167</v>
       </c>
       <c r="K168" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -8644,7 +8647,7 @@
         <v>168</v>
       </c>
       <c r="K169" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -8671,7 +8674,7 @@
         <v>169</v>
       </c>
       <c r="K170" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -8698,7 +8701,7 @@
         <v>170</v>
       </c>
       <c r="K171" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -8725,7 +8728,7 @@
         <v>171</v>
       </c>
       <c r="K172" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -8752,7 +8755,7 @@
         <v>172</v>
       </c>
       <c r="K173" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -8779,7 +8782,7 @@
         <v>173</v>
       </c>
       <c r="K174" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -8806,7 +8809,7 @@
         <v>174</v>
       </c>
       <c r="K175" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -8833,7 +8836,7 @@
         <v>175</v>
       </c>
       <c r="K176" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -8860,7 +8863,7 @@
         <v>176</v>
       </c>
       <c r="K177" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -8887,7 +8890,7 @@
         <v>177</v>
       </c>
       <c r="K178" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -8914,7 +8917,7 @@
         <v>178</v>
       </c>
       <c r="K179" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -8941,7 +8944,7 @@
         <v>179</v>
       </c>
       <c r="K180" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -8968,7 +8971,7 @@
         <v>180</v>
       </c>
       <c r="K181" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -8995,7 +8998,7 @@
         <v>181</v>
       </c>
       <c r="K182" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -9022,7 +9025,7 @@
         <v>182</v>
       </c>
       <c r="K183" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -9049,7 +9052,7 @@
         <v>183</v>
       </c>
       <c r="K184" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -9076,7 +9079,7 @@
         <v>184</v>
       </c>
       <c r="K185" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -9103,7 +9106,7 @@
         <v>185</v>
       </c>
       <c r="K186" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -9130,7 +9133,7 @@
         <v>186</v>
       </c>
       <c r="K187" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -9157,7 +9160,7 @@
         <v>189</v>
       </c>
       <c r="K188" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -9184,7 +9187,7 @@
         <v>188</v>
       </c>
       <c r="K189" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -9211,7 +9214,7 @@
         <v>187</v>
       </c>
       <c r="K190" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -9238,7 +9241,7 @@
         <v>191</v>
       </c>
       <c r="K191" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -9265,7 +9268,7 @@
         <v>190</v>
       </c>
       <c r="K192" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -9295,7 +9298,7 @@
       </c>
       <c r="J193" s="5"/>
       <c r="K193" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -9325,7 +9328,7 @@
       </c>
       <c r="J194" s="5"/>
       <c r="K194" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -9352,7 +9355,7 @@
         <v>193</v>
       </c>
       <c r="K195" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -9379,7 +9382,7 @@
         <v>194</v>
       </c>
       <c r="K196" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -9406,7 +9409,7 @@
         <v>196</v>
       </c>
       <c r="K197" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -9433,7 +9436,7 @@
         <v>197</v>
       </c>
       <c r="K198" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -9460,7 +9463,7 @@
         <v>198</v>
       </c>
       <c r="K199" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -9487,7 +9490,7 @@
         <v>199</v>
       </c>
       <c r="K200" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -9514,7 +9517,7 @@
         <v>200</v>
       </c>
       <c r="K201" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -9562,7 +9565,7 @@
         <v>202</v>
       </c>
       <c r="K203" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -9589,7 +9592,7 @@
         <v>203</v>
       </c>
       <c r="K204" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -9616,7 +9619,7 @@
         <v>204</v>
       </c>
       <c r="K205" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -9643,7 +9646,7 @@
         <v>205</v>
       </c>
       <c r="K206" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -9670,7 +9673,7 @@
         <v>206</v>
       </c>
       <c r="K207" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -9697,7 +9700,7 @@
         <v>207</v>
       </c>
       <c r="K208" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -9724,7 +9727,7 @@
         <v>208</v>
       </c>
       <c r="K209" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -9751,7 +9754,7 @@
         <v>209</v>
       </c>
       <c r="K210" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -9778,7 +9781,7 @@
         <v>210</v>
       </c>
       <c r="K211" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -9805,7 +9808,7 @@
         <v>214</v>
       </c>
       <c r="K212" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -9832,7 +9835,7 @@
         <v>215</v>
       </c>
       <c r="K213" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -9859,7 +9862,7 @@
         <v>216</v>
       </c>
       <c r="K214" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -9886,7 +9889,7 @@
         <v>217</v>
       </c>
       <c r="K215" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -9913,7 +9916,7 @@
         <v>218</v>
       </c>
       <c r="K216" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -9940,7 +9943,7 @@
         <v>211</v>
       </c>
       <c r="K217" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -9967,7 +9970,7 @@
         <v>212</v>
       </c>
       <c r="K218" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -9994,7 +9997,7 @@
         <v>213</v>
       </c>
       <c r="K219" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -10021,7 +10024,7 @@
         <v>219</v>
       </c>
       <c r="K220" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -10048,7 +10051,7 @@
         <v>220</v>
       </c>
       <c r="K221" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -10075,7 +10078,7 @@
         <v>221</v>
       </c>
       <c r="K222" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -10102,7 +10105,7 @@
         <v>222</v>
       </c>
       <c r="K223" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -10129,7 +10132,7 @@
         <v>223</v>
       </c>
       <c r="K224" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -10156,7 +10159,7 @@
         <v>224</v>
       </c>
       <c r="K225" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -10183,7 +10186,7 @@
         <v>225</v>
       </c>
       <c r="K226" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -10210,7 +10213,7 @@
         <v>226</v>
       </c>
       <c r="K227" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -10237,7 +10240,7 @@
         <v>227</v>
       </c>
       <c r="K228" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -10264,7 +10267,7 @@
         <v>228</v>
       </c>
       <c r="K229" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -10291,7 +10294,7 @@
         <v>229</v>
       </c>
       <c r="K230" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -10318,7 +10321,7 @@
         <v>230</v>
       </c>
       <c r="K231" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -10345,7 +10348,7 @@
         <v>231</v>
       </c>
       <c r="K232" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -10372,7 +10375,7 @@
         <v>232</v>
       </c>
       <c r="K233" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -10399,7 +10402,7 @@
         <v>233</v>
       </c>
       <c r="K234" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -10426,7 +10429,7 @@
         <v>234</v>
       </c>
       <c r="K235" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -10467,7 +10470,7 @@
         <v>81</v>
       </c>
       <c r="K237" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -10487,7 +10490,7 @@
         <v>82</v>
       </c>
       <c r="K238" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -10507,7 +10510,7 @@
         <v>658</v>
       </c>
       <c r="K239" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -10527,7 +10530,7 @@
         <v>669</v>
       </c>
       <c r="K240" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -10547,7 +10550,7 @@
         <v>756</v>
       </c>
       <c r="K241" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -10567,7 +10570,7 @@
         <v>326</v>
       </c>
       <c r="K242" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -10587,7 +10590,7 @@
         <v>327</v>
       </c>
       <c r="K243" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -10607,7 +10610,7 @@
         <v>329</v>
       </c>
       <c r="K244" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -10627,7 +10630,7 @@
         <v>332</v>
       </c>
       <c r="K245" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -10647,7 +10650,7 @@
         <v>360088</v>
       </c>
       <c r="K246" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -10667,7 +10670,7 @@
         <v>335</v>
       </c>
       <c r="K247" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -10687,7 +10690,7 @@
         <v>92</v>
       </c>
       <c r="K248" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -10707,7 +10710,7 @@
         <v>94</v>
       </c>
       <c r="K249" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -10727,7 +10730,7 @@
         <v>444</v>
       </c>
       <c r="K250" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -10747,7 +10750,7 @@
         <v>747</v>
       </c>
       <c r="K251" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -10767,7 +10770,7 @@
         <v>544</v>
       </c>
       <c r="K252" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -10787,7 +10790,7 @@
         <v>545</v>
       </c>
       <c r="K253" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -10807,7 +10810,7 @@
         <v>380</v>
       </c>
       <c r="K254" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -10827,7 +10830,7 @@
         <v>111</v>
       </c>
       <c r="K255" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -10861,7 +10864,7 @@
         <v>111</v>
       </c>
       <c r="K257" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -10881,7 +10884,7 @@
         <v>210</v>
       </c>
       <c r="K258" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -10901,7 +10904,7 @@
         <v>662</v>
       </c>
       <c r="K259" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -10921,7 +10924,7 @@
         <v>672</v>
       </c>
       <c r="K260" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -10941,7 +10944,7 @@
         <v>4812</v>
       </c>
       <c r="K261" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -10961,7 +10964,7 @@
         <v>385</v>
       </c>
       <c r="K262" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -10981,7 +10984,7 @@
         <v>387</v>
       </c>
       <c r="K263" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -11001,7 +11004,7 @@
         <v>111</v>
       </c>
       <c r="K264" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -11021,7 +11024,7 @@
         <v>111</v>
       </c>
       <c r="K265" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -11041,7 +11044,7 @@
         <v>343</v>
       </c>
       <c r="K266" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -11061,7 +11064,7 @@
         <v>372</v>
       </c>
       <c r="K267" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -11081,7 +11084,7 @@
         <v>373</v>
       </c>
       <c r="K268" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -11101,7 +11104,7 @@
         <v>32</v>
       </c>
       <c r="K269" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -11121,7 +11124,7 @@
         <v>288</v>
       </c>
       <c r="K270" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -11141,7 +11144,7 @@
         <v>340</v>
       </c>
       <c r="K271" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -11161,7 +11164,7 @@
         <v>287</v>
       </c>
       <c r="K272" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -11181,7 +11184,7 @@
         <v>307</v>
       </c>
       <c r="K273" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -11201,7 +11204,7 @@
         <v>341</v>
       </c>
       <c r="K274" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -11221,7 +11224,7 @@
         <v>292</v>
       </c>
       <c r="K275" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -11241,7 +11244,7 @@
         <v>302</v>
       </c>
       <c r="K276" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -11261,7 +11264,7 @@
         <v>338</v>
       </c>
       <c r="K277" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -11281,7 +11284,7 @@
         <v>290</v>
       </c>
       <c r="K278" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -11301,7 +11304,7 @@
         <v>340</v>
       </c>
       <c r="K279" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -11349,7 +11352,7 @@
         <v>407</v>
       </c>
       <c r="K282" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -11369,7 +11372,7 @@
         <v>408</v>
       </c>
       <c r="K283" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -11389,7 +11392,7 @@
         <v>739</v>
       </c>
       <c r="K284" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -11423,7 +11426,7 @@
         <v>111</v>
       </c>
       <c r="K286" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -11462,7 +11465,7 @@
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
       <c r="K288" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -11487,7 +11490,7 @@
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
       <c r="K289" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -11521,7 +11524,7 @@
         <v>414</v>
       </c>
       <c r="K291" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -11541,7 +11544,7 @@
         <v>602113</v>
       </c>
       <c r="K292" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -11561,7 +11564,7 @@
         <v>411</v>
       </c>
       <c r="K293" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -11581,7 +11584,7 @@
         <v>111</v>
       </c>
       <c r="K294" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -11601,7 +11604,7 @@
         <v>488</v>
       </c>
       <c r="K295" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -11621,7 +11624,7 @@
         <v>489</v>
       </c>
       <c r="K296" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -11641,7 +11644,7 @@
         <v>490</v>
       </c>
       <c r="K297" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -11661,7 +11664,7 @@
         <v>491</v>
       </c>
       <c r="K298" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -11681,7 +11684,7 @@
         <v>111</v>
       </c>
       <c r="K299" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -11701,7 +11704,7 @@
         <v>28</v>
       </c>
       <c r="K300" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -11721,7 +11724,7 @@
         <v>367</v>
       </c>
       <c r="K301" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -11741,7 +11744,7 @@
         <v>454</v>
       </c>
       <c r="K302" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -11761,7 +11764,7 @@
         <v>456</v>
       </c>
       <c r="K303" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -11781,7 +11784,7 @@
         <v>354</v>
       </c>
       <c r="K304" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -11801,7 +11804,7 @@
         <v>459</v>
       </c>
       <c r="K305" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -11821,7 +11824,7 @@
         <v>656</v>
       </c>
       <c r="K306" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
@@ -11838,7 +11841,7 @@
         <v>138</v>
       </c>
       <c r="K307" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -11858,7 +11861,7 @@
         <v>462</v>
       </c>
       <c r="K308" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -11878,7 +11881,7 @@
         <v>463</v>
       </c>
       <c r="K309" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -11898,7 +11901,7 @@
         <v>777</v>
       </c>
       <c r="K310" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -11918,7 +11921,7 @@
         <v>777</v>
       </c>
       <c r="K311" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -11938,7 +11941,7 @@
         <v>775</v>
       </c>
       <c r="K312" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -11958,7 +11961,7 @@
         <v>767</v>
       </c>
       <c r="K313" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -11978,7 +11981,7 @@
         <v>519</v>
       </c>
       <c r="K314" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -11998,7 +12001,7 @@
         <v>446</v>
       </c>
       <c r="K315" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
@@ -12018,7 +12021,7 @@
         <v>537</v>
       </c>
       <c r="K316" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
@@ -12038,7 +12041,7 @@
         <v>4230</v>
       </c>
       <c r="K317" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
@@ -12058,7 +12061,7 @@
         <v>111</v>
       </c>
       <c r="K318" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -12078,7 +12081,7 @@
         <v>111</v>
       </c>
       <c r="K319" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
@@ -12098,7 +12101,7 @@
         <v>710</v>
       </c>
       <c r="K320" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
@@ -12118,7 +12121,7 @@
         <v>712</v>
       </c>
       <c r="K321" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
@@ -12138,7 +12141,7 @@
         <v>111</v>
       </c>
       <c r="K322" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
@@ -12158,7 +12161,7 @@
         <v>34452</v>
       </c>
       <c r="K323" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
@@ -12178,7 +12181,7 @@
         <v>702</v>
       </c>
       <c r="K324" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
@@ -12198,7 +12201,7 @@
         <v>706</v>
       </c>
       <c r="K325" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
@@ -12218,7 +12221,7 @@
         <v>704</v>
       </c>
       <c r="K326" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
@@ -12238,7 +12241,7 @@
         <v>707</v>
       </c>
       <c r="K327" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
@@ -12258,7 +12261,7 @@
         <v>1455</v>
       </c>
       <c r="K328" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
@@ -12278,7 +12281,7 @@
         <v>466</v>
       </c>
       <c r="K329" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
@@ -12298,7 +12301,7 @@
         <v>468</v>
       </c>
       <c r="K330" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
@@ -12318,7 +12321,7 @@
         <v>606</v>
       </c>
       <c r="K331" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
@@ -12338,7 +12341,7 @@
         <v>474</v>
       </c>
       <c r="K332" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
@@ -12358,7 +12361,7 @@
         <v>476</v>
       </c>
       <c r="K333" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
@@ -12378,7 +12381,7 @@
         <v>477</v>
       </c>
       <c r="K334" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
@@ -12398,7 +12401,7 @@
         <v>478</v>
       </c>
       <c r="K335" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
@@ -12418,7 +12421,7 @@
         <v>479</v>
       </c>
       <c r="K336" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
@@ -12438,7 +12441,7 @@
         <v>476</v>
       </c>
       <c r="K337" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
@@ -12458,7 +12461,7 @@
         <v>480</v>
       </c>
       <c r="K338" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
@@ -12478,7 +12481,7 @@
         <v>481</v>
       </c>
       <c r="K339" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
@@ -12498,7 +12501,7 @@
         <v>119</v>
       </c>
       <c r="K340" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
@@ -12523,7 +12526,7 @@
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
@@ -12543,7 +12546,7 @@
         <v>346</v>
       </c>
       <c r="K342" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
@@ -12563,7 +12566,7 @@
         <v>347</v>
       </c>
       <c r="K343" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
@@ -12583,7 +12586,7 @@
         <v>639</v>
       </c>
       <c r="K344" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
@@ -12603,7 +12606,7 @@
         <v>641</v>
       </c>
       <c r="K345" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
@@ -12623,7 +12626,7 @@
         <v>642</v>
       </c>
       <c r="K346" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
@@ -12643,7 +12646,7 @@
         <v>297</v>
       </c>
       <c r="K347" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -12663,7 +12666,7 @@
         <v>297</v>
       </c>
       <c r="K348" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
@@ -12683,7 +12686,7 @@
         <v>493</v>
       </c>
       <c r="K349" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
@@ -12703,7 +12706,7 @@
         <v>496</v>
       </c>
       <c r="K350" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -12723,7 +12726,7 @@
         <v>497</v>
       </c>
       <c r="K351" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
@@ -12743,7 +12746,7 @@
         <v>470</v>
       </c>
       <c r="K352" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
@@ -12763,7 +12766,7 @@
         <v>471</v>
       </c>
       <c r="K353" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
@@ -12783,7 +12786,7 @@
         <v>769</v>
       </c>
       <c r="K354" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
@@ -12803,7 +12806,7 @@
         <v>3005213</v>
       </c>
       <c r="K355" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
@@ -12823,7 +12826,7 @@
         <v>621</v>
       </c>
       <c r="K356" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
@@ -12843,7 +12846,7 @@
         <v>622</v>
       </c>
       <c r="K357" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
@@ -12863,7 +12866,7 @@
         <v>624</v>
       </c>
       <c r="K358" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
@@ -12883,7 +12886,7 @@
         <v>619</v>
       </c>
       <c r="K359" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
@@ -12903,7 +12906,7 @@
         <v>378</v>
       </c>
       <c r="K360" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
@@ -12937,7 +12940,7 @@
         <v>61</v>
       </c>
       <c r="K362" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
@@ -12957,7 +12960,7 @@
         <v>62</v>
       </c>
       <c r="K363" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
@@ -12977,7 +12980,7 @@
         <v>102</v>
       </c>
       <c r="K364" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
@@ -12997,7 +13000,7 @@
         <v>26</v>
       </c>
       <c r="K365" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
@@ -13017,7 +13020,7 @@
         <v>30</v>
       </c>
       <c r="K366" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
@@ -13037,7 +13040,7 @@
         <v>483</v>
       </c>
       <c r="K367" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
@@ -13057,7 +13060,7 @@
         <v>484</v>
       </c>
       <c r="K368" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -13077,7 +13080,7 @@
         <v>485</v>
       </c>
       <c r="K369" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
@@ -13097,7 +13100,7 @@
         <v>486</v>
       </c>
       <c r="K370" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
@@ -13117,7 +13120,7 @@
         <v>4918700</v>
       </c>
       <c r="K371" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
@@ -13137,7 +13140,7 @@
         <v>508</v>
       </c>
       <c r="K372" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
@@ -13157,7 +13160,7 @@
         <v>510</v>
       </c>
       <c r="K373" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
@@ -13177,7 +13180,7 @@
         <v>97747</v>
       </c>
       <c r="K374" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
@@ -13197,7 +13200,7 @@
         <v>726</v>
       </c>
       <c r="K375" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
@@ -13217,7 +13220,7 @@
         <v>591</v>
       </c>
       <c r="K376" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
@@ -13237,7 +13240,7 @@
         <v>317</v>
       </c>
       <c r="K377" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
@@ -13257,7 +13260,7 @@
         <v>362</v>
       </c>
       <c r="K378" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
@@ -13277,7 +13280,7 @@
         <v>715</v>
       </c>
       <c r="K379" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
@@ -13297,7 +13300,7 @@
         <v>698</v>
       </c>
       <c r="K380" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
@@ -13317,7 +13320,7 @@
         <v>685</v>
       </c>
       <c r="K381" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
@@ -13337,7 +13340,7 @@
         <v>525</v>
       </c>
       <c r="K382" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
@@ -13357,7 +13360,7 @@
         <v>111</v>
       </c>
       <c r="K383" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
@@ -13377,7 +13380,7 @@
         <v>299</v>
       </c>
       <c r="K384" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
@@ -13397,7 +13400,7 @@
         <v>309</v>
       </c>
       <c r="K385" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
@@ -13417,7 +13420,7 @@
         <v>349</v>
       </c>
       <c r="K386" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
@@ -13437,7 +13440,7 @@
         <v>358</v>
       </c>
       <c r="K387" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -13457,7 +13460,7 @@
         <v>198</v>
       </c>
       <c r="K388" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
@@ -13477,7 +13480,7 @@
         <v>199</v>
       </c>
       <c r="K389" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
@@ -13497,7 +13500,7 @@
         <v>111</v>
       </c>
       <c r="K390" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
@@ -13517,7 +13520,7 @@
         <v>729</v>
       </c>
       <c r="K391" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
@@ -13537,7 +13540,7 @@
         <v>23</v>
       </c>
       <c r="K392" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
@@ -13557,7 +13560,7 @@
         <v>527</v>
       </c>
       <c r="K393" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
@@ -13577,7 +13580,7 @@
         <v>530</v>
       </c>
       <c r="K394" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
@@ -13597,7 +13600,7 @@
         <v>448</v>
       </c>
       <c r="K395" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
@@ -13617,7 +13620,7 @@
         <v>772</v>
       </c>
       <c r="K396" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
@@ -13637,7 +13640,7 @@
         <v>111</v>
       </c>
       <c r="K397" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
@@ -13657,7 +13660,7 @@
         <v>772</v>
       </c>
       <c r="K398" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
@@ -13677,7 +13680,7 @@
         <v>772</v>
       </c>
       <c r="K399" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
@@ -13697,7 +13700,7 @@
         <v>173</v>
       </c>
       <c r="K400" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
@@ -13717,7 +13720,7 @@
         <v>533</v>
       </c>
       <c r="K401" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
@@ -13737,7 +13740,7 @@
         <v>313</v>
       </c>
       <c r="K402" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
@@ -13757,7 +13760,7 @@
         <v>314</v>
       </c>
       <c r="K403" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
@@ -13777,7 +13780,7 @@
         <v>315</v>
       </c>
       <c r="K404" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
@@ -13797,7 +13800,7 @@
         <v>359</v>
       </c>
       <c r="K405" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
@@ -13817,7 +13820,7 @@
         <v>360</v>
       </c>
       <c r="K406" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
@@ -13837,7 +13840,7 @@
         <v>361</v>
       </c>
       <c r="K407" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
@@ -13857,7 +13860,7 @@
         <v>111</v>
       </c>
       <c r="K408" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
@@ -13877,7 +13880,7 @@
         <v>84</v>
       </c>
       <c r="K409" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
@@ -13897,7 +13900,7 @@
         <v>366</v>
       </c>
       <c r="K410" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
@@ -13917,7 +13920,7 @@
         <v>108</v>
       </c>
       <c r="K411" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
@@ -13937,7 +13940,7 @@
         <v>734</v>
       </c>
       <c r="K412" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
@@ -13957,7 +13960,7 @@
         <v>571</v>
       </c>
       <c r="K413" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
@@ -13977,7 +13980,7 @@
         <v>580</v>
       </c>
       <c r="K414" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
@@ -13997,7 +14000,7 @@
         <v>111</v>
       </c>
       <c r="K415" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
@@ -14017,7 +14020,7 @@
         <v>111</v>
       </c>
       <c r="K416" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -14037,7 +14040,7 @@
         <v>111</v>
       </c>
       <c r="K417" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
@@ -14057,7 +14060,7 @@
         <v>685</v>
       </c>
       <c r="K418" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
@@ -14077,7 +14080,7 @@
         <v>575</v>
       </c>
       <c r="K419" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
@@ -14097,7 +14100,7 @@
         <v>576</v>
       </c>
       <c r="K420" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
@@ -14117,7 +14120,7 @@
         <v>578</v>
       </c>
       <c r="K421" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
@@ -14137,7 +14140,7 @@
         <v>450</v>
       </c>
       <c r="K422" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
@@ -14171,7 +14174,7 @@
         <v>660</v>
       </c>
       <c r="K424" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
@@ -14191,7 +14194,7 @@
         <v>671</v>
       </c>
       <c r="K425" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
@@ -14211,7 +14214,7 @@
         <v>111</v>
       </c>
       <c r="K426" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
@@ -14231,7 +14234,7 @@
         <v>671</v>
       </c>
       <c r="K427" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
@@ -14251,7 +14254,7 @@
         <v>722</v>
       </c>
       <c r="K428" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
@@ -14271,7 +14274,7 @@
         <v>323</v>
       </c>
       <c r="K429" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
@@ -14291,7 +14294,7 @@
         <v>111</v>
       </c>
       <c r="K430" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
@@ -14311,7 +14314,7 @@
         <v>111</v>
       </c>
       <c r="K431" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
@@ -14331,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="K432" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
@@ -14365,7 +14368,7 @@
         <v>156</v>
       </c>
       <c r="K434" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
@@ -14385,7 +14388,7 @@
         <v>582</v>
       </c>
       <c r="K435" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
@@ -14405,7 +14408,7 @@
         <v>1331</v>
       </c>
       <c r="K436" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
@@ -14425,7 +14428,7 @@
         <v>588</v>
       </c>
       <c r="K437" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
@@ -14445,7 +14448,7 @@
         <v>189</v>
       </c>
       <c r="K438" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
@@ -14465,7 +14468,7 @@
         <v>593</v>
       </c>
       <c r="K439" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
@@ -14485,7 +14488,7 @@
         <v>595</v>
       </c>
       <c r="K440" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
@@ -14505,7 +14508,7 @@
         <v>192</v>
       </c>
       <c r="K441" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
@@ -14525,7 +14528,7 @@
         <v>598</v>
       </c>
       <c r="K442" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
@@ -14545,7 +14548,7 @@
         <v>598</v>
       </c>
       <c r="K443" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
@@ -14579,7 +14582,7 @@
         <v>111</v>
       </c>
       <c r="K445" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
@@ -14599,7 +14602,7 @@
         <v>611</v>
       </c>
       <c r="K446" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
@@ -14619,7 +14622,7 @@
         <v>612</v>
       </c>
       <c r="K447" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
@@ -14639,7 +14642,7 @@
         <v>742</v>
       </c>
       <c r="K448" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
@@ -14659,7 +14662,7 @@
         <v>627</v>
       </c>
       <c r="K449" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
@@ -14679,7 +14682,7 @@
         <v>614</v>
       </c>
       <c r="K450" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
@@ -14699,7 +14702,7 @@
         <v>615</v>
       </c>
       <c r="K451" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
@@ -14719,7 +14722,7 @@
         <v>616</v>
       </c>
       <c r="K452" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
@@ -14739,7 +14742,7 @@
         <v>42</v>
       </c>
       <c r="K453" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
@@ -14759,7 +14762,7 @@
         <v>502</v>
       </c>
       <c r="K454" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
@@ -14779,7 +14782,7 @@
         <v>499</v>
       </c>
       <c r="K455" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
@@ -14799,7 +14802,7 @@
         <v>535</v>
       </c>
       <c r="K456" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
@@ -14833,8 +14836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67270D1F-9252-4710-A74A-D374ABF48298}">
   <dimension ref="A1:M458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="K225" sqref="K225"/>
+    <sheetView tabSelected="1" topLeftCell="A1371" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259:XFD259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14853,10 +14856,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I1" t="s">
         <v>1232</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -15246,7 +15249,7 @@
         <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -15292,7 +15295,7 @@
         <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -15312,7 +15315,7 @@
         <v>28</v>
       </c>
       <c r="K19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -15332,7 +15335,7 @@
         <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -15359,7 +15362,7 @@
         <v>114</v>
       </c>
       <c r="K21" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -15379,7 +15382,7 @@
         <v>32</v>
       </c>
       <c r="K22" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -15406,7 +15409,7 @@
         <v>115</v>
       </c>
       <c r="K23" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -15433,7 +15436,7 @@
         <v>116</v>
       </c>
       <c r="K24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -15460,7 +15463,7 @@
         <v>117</v>
       </c>
       <c r="K25" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -15480,7 +15483,7 @@
         <v>42</v>
       </c>
       <c r="K26" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -15494,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>44</v>
@@ -15507,7 +15510,7 @@
         <v>71</v>
       </c>
       <c r="K27" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -15588,7 +15591,7 @@
         <v>176</v>
       </c>
       <c r="K30" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -15696,7 +15699,7 @@
         <v>121</v>
       </c>
       <c r="K34" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -15716,7 +15719,7 @@
         <v>61</v>
       </c>
       <c r="K35" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -15736,7 +15739,7 @@
         <v>62</v>
       </c>
       <c r="K36" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -15763,7 +15766,7 @@
         <v>82</v>
       </c>
       <c r="K37" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -15790,7 +15793,7 @@
         <v>133</v>
       </c>
       <c r="K38" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -15817,7 +15820,7 @@
         <v>208</v>
       </c>
       <c r="K39" t="s">
-        <v>989</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -15844,7 +15847,7 @@
         <v>234</v>
       </c>
       <c r="K40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -15871,7 +15874,7 @@
         <v>79</v>
       </c>
       <c r="K41" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -15900,7 +15903,7 @@
         <v>80</v>
       </c>
       <c r="K42" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -15927,7 +15930,7 @@
         <v>134</v>
       </c>
       <c r="K43" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -15954,7 +15957,7 @@
         <v>136</v>
       </c>
       <c r="K44" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -15981,7 +15984,7 @@
         <v>137</v>
       </c>
       <c r="K45" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -16001,7 +16004,7 @@
         <v>81</v>
       </c>
       <c r="K46" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -16021,7 +16024,7 @@
         <v>82</v>
       </c>
       <c r="K47" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -16041,7 +16044,7 @@
         <v>84</v>
       </c>
       <c r="K48" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -16094,7 +16097,7 @@
         <v>78</v>
       </c>
       <c r="K50" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -16114,7 +16117,7 @@
         <v>92</v>
       </c>
       <c r="K51" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -16134,7 +16137,7 @@
         <v>94</v>
       </c>
       <c r="K52" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -16208,7 +16211,7 @@
         <v>102</v>
       </c>
       <c r="K55" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -16235,7 +16238,7 @@
         <v>83</v>
       </c>
       <c r="K56" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -16261,7 +16264,7 @@
         <v>107</v>
       </c>
       <c r="K57" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -16281,7 +16284,7 @@
         <v>108</v>
       </c>
       <c r="K58" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -16308,7 +16311,7 @@
         <v>150</v>
       </c>
       <c r="K59" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -16328,7 +16331,7 @@
         <v>111</v>
       </c>
       <c r="K60" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -16355,7 +16358,7 @@
         <v>113</v>
       </c>
       <c r="K61" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -16375,7 +16378,7 @@
         <v>111</v>
       </c>
       <c r="K62" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -16395,7 +16398,7 @@
         <v>111</v>
       </c>
       <c r="K63" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -16415,7 +16418,7 @@
         <v>111</v>
       </c>
       <c r="K64" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -16435,7 +16438,7 @@
         <v>111</v>
       </c>
       <c r="K65" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -16455,7 +16458,7 @@
         <v>119</v>
       </c>
       <c r="K66" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -16475,7 +16478,7 @@
         <v>111</v>
       </c>
       <c r="K67" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -16495,7 +16498,7 @@
         <v>111</v>
       </c>
       <c r="K68" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -16522,7 +16525,7 @@
         <v>146</v>
       </c>
       <c r="K69" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -16549,7 +16552,7 @@
         <v>147</v>
       </c>
       <c r="K70" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L70" s="3"/>
     </row>
@@ -16577,7 +16580,7 @@
         <v>174</v>
       </c>
       <c r="K71" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -16651,7 +16654,7 @@
         <v>111</v>
       </c>
       <c r="K74" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -16671,7 +16674,7 @@
         <v>111</v>
       </c>
       <c r="K75" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -16691,7 +16694,7 @@
         <v>111</v>
       </c>
       <c r="K76" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -16711,7 +16714,7 @@
         <v>111</v>
       </c>
       <c r="K77" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -16738,7 +16741,7 @@
         <v>112</v>
       </c>
       <c r="K78" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -16765,7 +16768,7 @@
         <v>73</v>
       </c>
       <c r="K79" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -16791,7 +16794,7 @@
         <v>111</v>
       </c>
       <c r="K80" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -16799,7 +16802,7 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -16818,7 +16821,7 @@
         <v>70</v>
       </c>
       <c r="K81" t="s">
-        <v>853</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -16838,7 +16841,7 @@
         <v>111</v>
       </c>
       <c r="K82" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -16858,7 +16861,7 @@
         <v>111</v>
       </c>
       <c r="K83" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -16878,7 +16881,7 @@
         <v>111</v>
       </c>
       <c r="K84" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -16895,7 +16898,7 @@
         <v>138</v>
       </c>
       <c r="K85" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -16922,7 +16925,7 @@
         <v>100</v>
       </c>
       <c r="K86" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -16949,7 +16952,7 @@
         <v>93</v>
       </c>
       <c r="K87" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -16976,7 +16979,7 @@
         <v>102</v>
       </c>
       <c r="K88" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -17003,7 +17006,7 @@
         <v>104</v>
       </c>
       <c r="K89" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L89" s="3"/>
     </row>
@@ -17031,7 +17034,7 @@
         <v>103</v>
       </c>
       <c r="K90" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -17058,7 +17061,7 @@
         <v>148</v>
       </c>
       <c r="K91" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -17078,7 +17081,7 @@
         <v>154</v>
       </c>
       <c r="K92" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -17098,7 +17101,7 @@
         <v>156</v>
       </c>
       <c r="K93" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -17125,7 +17128,7 @@
         <v>101</v>
       </c>
       <c r="K94" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -17152,7 +17155,7 @@
         <v>173</v>
       </c>
       <c r="K95" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -17179,7 +17182,7 @@
         <v>138</v>
       </c>
       <c r="K96" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -17206,7 +17209,7 @@
         <v>139</v>
       </c>
       <c r="K97" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -17233,7 +17236,7 @@
         <v>140</v>
       </c>
       <c r="K98" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -17260,7 +17263,7 @@
         <v>141</v>
       </c>
       <c r="K99" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -17280,7 +17283,7 @@
         <v>173</v>
       </c>
       <c r="K100" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -17307,7 +17310,7 @@
         <v>142</v>
       </c>
       <c r="K101" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -17334,7 +17337,7 @@
         <v>143</v>
       </c>
       <c r="K102" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -17361,7 +17364,7 @@
         <v>172</v>
       </c>
       <c r="K103" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -17381,7 +17384,7 @@
         <v>4230</v>
       </c>
       <c r="K104" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -17401,7 +17404,7 @@
         <v>34452</v>
       </c>
       <c r="K105" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -17428,7 +17431,7 @@
         <v>144</v>
       </c>
       <c r="K106" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -17455,7 +17458,7 @@
         <v>152</v>
       </c>
       <c r="K107" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -17475,7 +17478,7 @@
         <v>189</v>
       </c>
       <c r="K108" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -17495,7 +17498,7 @@
         <v>192</v>
       </c>
       <c r="K109" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -17522,7 +17525,7 @@
         <v>151</v>
       </c>
       <c r="K110" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -17542,7 +17545,7 @@
         <v>198</v>
       </c>
       <c r="K111" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -17562,7 +17565,7 @@
         <v>199</v>
       </c>
       <c r="K112" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -17589,7 +17592,7 @@
         <v>157</v>
       </c>
       <c r="K113" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -17616,7 +17619,7 @@
         <v>158</v>
       </c>
       <c r="K114" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -17643,7 +17646,7 @@
         <v>159</v>
       </c>
       <c r="K115" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -17670,7 +17673,7 @@
         <v>131</v>
       </c>
       <c r="K116" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -17697,7 +17700,7 @@
         <v>132</v>
       </c>
       <c r="K117" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -17717,7 +17720,7 @@
         <v>210</v>
       </c>
       <c r="K118" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -17744,7 +17747,7 @@
         <v>154</v>
       </c>
       <c r="K119" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -17771,7 +17774,7 @@
         <v>156</v>
       </c>
       <c r="K120" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -17798,7 +17801,7 @@
         <v>155</v>
       </c>
       <c r="K121" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -17825,7 +17828,7 @@
         <v>120</v>
       </c>
       <c r="K122" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -17852,7 +17855,7 @@
         <v>122</v>
       </c>
       <c r="K123" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -17879,7 +17882,7 @@
         <v>182</v>
       </c>
       <c r="K124" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -17906,7 +17909,7 @@
         <v>183</v>
       </c>
       <c r="K125" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -17933,7 +17936,7 @@
         <v>184</v>
       </c>
       <c r="K126" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -17960,7 +17963,7 @@
         <v>186</v>
       </c>
       <c r="K127" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -17987,7 +17990,7 @@
         <v>197</v>
       </c>
       <c r="K128" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -18014,7 +18017,7 @@
         <v>189</v>
       </c>
       <c r="K129" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -18041,7 +18044,7 @@
         <v>188</v>
       </c>
       <c r="K130" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -18068,7 +18071,7 @@
         <v>192</v>
       </c>
       <c r="K131" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -18095,7 +18098,7 @@
         <v>195</v>
       </c>
       <c r="K132" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -18122,7 +18125,7 @@
         <v>193</v>
       </c>
       <c r="K133" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -18149,7 +18152,7 @@
         <v>194</v>
       </c>
       <c r="K134" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -18176,7 +18179,7 @@
         <v>196</v>
       </c>
       <c r="K135" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -18203,7 +18206,7 @@
         <v>202</v>
       </c>
       <c r="K136" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -18230,7 +18233,7 @@
         <v>203</v>
       </c>
       <c r="K137" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -18257,7 +18260,7 @@
         <v>204</v>
       </c>
       <c r="K138" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -18284,7 +18287,7 @@
         <v>214</v>
       </c>
       <c r="K139" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -18311,7 +18314,7 @@
         <v>215</v>
       </c>
       <c r="K140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -18338,7 +18341,7 @@
         <v>216</v>
       </c>
       <c r="K141" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -18365,7 +18368,7 @@
         <v>217</v>
       </c>
       <c r="K142" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -18392,7 +18395,7 @@
         <v>218</v>
       </c>
       <c r="K143" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -18419,7 +18422,7 @@
         <v>211</v>
       </c>
       <c r="K144" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -18446,7 +18449,7 @@
         <v>212</v>
       </c>
       <c r="K145" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -18473,7 +18476,7 @@
         <v>213</v>
       </c>
       <c r="K146" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -18500,7 +18503,7 @@
         <v>219</v>
       </c>
       <c r="K147" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -18527,7 +18530,7 @@
         <v>224</v>
       </c>
       <c r="K148" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -18554,7 +18557,7 @@
         <v>225</v>
       </c>
       <c r="K149" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -18581,7 +18584,7 @@
         <v>226</v>
       </c>
       <c r="K150" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -18608,7 +18611,7 @@
         <v>227</v>
       </c>
       <c r="K151" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -18635,7 +18638,7 @@
         <v>228</v>
       </c>
       <c r="K152" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -18662,7 +18665,7 @@
         <v>229</v>
       </c>
       <c r="K153" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -18689,7 +18692,7 @@
         <v>230</v>
       </c>
       <c r="K154" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -18716,7 +18719,7 @@
         <v>231</v>
       </c>
       <c r="K155" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -18743,7 +18746,7 @@
         <v>232</v>
       </c>
       <c r="K156" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -18770,7 +18773,7 @@
         <v>233</v>
       </c>
       <c r="K157" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -18797,7 +18800,7 @@
         <v>209</v>
       </c>
       <c r="K158" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -18824,7 +18827,7 @@
         <v>210</v>
       </c>
       <c r="K159" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -18851,7 +18854,7 @@
         <v>221</v>
       </c>
       <c r="K160" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -18905,7 +18908,7 @@
         <v>222</v>
       </c>
       <c r="K162" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -18931,7 +18934,7 @@
         <v>108</v>
       </c>
       <c r="K163" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -18951,7 +18954,7 @@
         <v>287</v>
       </c>
       <c r="K164" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -18971,7 +18974,7 @@
         <v>288</v>
       </c>
       <c r="K165" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -18991,7 +18994,7 @@
         <v>290</v>
       </c>
       <c r="K166" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -19011,7 +19014,7 @@
         <v>292</v>
       </c>
       <c r="K167" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -19038,7 +19041,7 @@
         <v>95</v>
       </c>
       <c r="K168" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -19058,7 +19061,7 @@
         <v>297</v>
       </c>
       <c r="K169" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -19078,7 +19081,7 @@
         <v>297</v>
       </c>
       <c r="K170" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -19098,7 +19101,7 @@
         <v>299</v>
       </c>
       <c r="K171" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -19125,7 +19128,7 @@
         <v>161</v>
       </c>
       <c r="K172" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -19145,7 +19148,7 @@
         <v>302</v>
       </c>
       <c r="K173" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -19172,7 +19175,7 @@
         <v>179</v>
       </c>
       <c r="K174" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -19219,7 +19222,7 @@
         <v>307</v>
       </c>
       <c r="K176" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -19246,7 +19249,7 @@
         <v>160</v>
       </c>
       <c r="K177" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -19266,7 +19269,7 @@
         <v>309</v>
       </c>
       <c r="K178" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -19293,7 +19296,7 @@
         <v>207</v>
       </c>
       <c r="K179" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -19313,7 +19316,7 @@
         <v>313</v>
       </c>
       <c r="K180" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -19333,7 +19336,7 @@
         <v>314</v>
       </c>
       <c r="K181" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -19353,7 +19356,7 @@
         <v>315</v>
       </c>
       <c r="K182" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -19373,7 +19376,7 @@
         <v>317</v>
       </c>
       <c r="K183" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -19400,7 +19403,7 @@
         <v>171</v>
       </c>
       <c r="K184" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -19427,7 +19430,7 @@
         <v>170</v>
       </c>
       <c r="K185" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -19447,7 +19450,7 @@
         <v>323</v>
       </c>
       <c r="K186" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -19467,7 +19470,7 @@
         <v>326</v>
       </c>
       <c r="K187" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -19487,7 +19490,7 @@
         <v>327</v>
       </c>
       <c r="K188" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -19507,7 +19510,7 @@
         <v>329</v>
       </c>
       <c r="K189" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -19527,7 +19530,7 @@
         <v>332</v>
       </c>
       <c r="K190" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -19547,7 +19550,7 @@
         <v>360088</v>
       </c>
       <c r="K191" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -19567,7 +19570,7 @@
         <v>335</v>
       </c>
       <c r="K192" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -19593,7 +19596,7 @@
         <v>109</v>
       </c>
       <c r="K193" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -19613,7 +19616,7 @@
         <v>338</v>
       </c>
       <c r="K194" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -19633,7 +19636,7 @@
         <v>340</v>
       </c>
       <c r="K195" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -19653,7 +19656,7 @@
         <v>340</v>
       </c>
       <c r="K196" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -19673,7 +19676,7 @@
         <v>341</v>
       </c>
       <c r="K197" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -19693,7 +19696,7 @@
         <v>343</v>
       </c>
       <c r="K198" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -19713,7 +19716,7 @@
         <v>345</v>
       </c>
       <c r="K199" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -19733,7 +19736,7 @@
         <v>346</v>
       </c>
       <c r="K200" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -19753,7 +19756,7 @@
         <v>347</v>
       </c>
       <c r="K201" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -19780,7 +19783,7 @@
         <v>163</v>
       </c>
       <c r="K202" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -19800,7 +19803,7 @@
         <v>349</v>
       </c>
       <c r="K203" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -19827,7 +19830,7 @@
         <v>166</v>
       </c>
       <c r="K204" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -19854,7 +19857,7 @@
         <v>180</v>
       </c>
       <c r="K205" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -19874,7 +19877,7 @@
         <v>354</v>
       </c>
       <c r="K206" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -19928,7 +19931,7 @@
         <v>162</v>
       </c>
       <c r="K208" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -19948,7 +19951,7 @@
         <v>358</v>
       </c>
       <c r="K209" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -19968,7 +19971,7 @@
         <v>359</v>
       </c>
       <c r="K210" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -19988,7 +19991,7 @@
         <v>360</v>
       </c>
       <c r="K211" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -20008,7 +20011,7 @@
         <v>361</v>
       </c>
       <c r="K212" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -20028,7 +20031,7 @@
         <v>362</v>
       </c>
       <c r="K213" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -20055,7 +20058,7 @@
         <v>169</v>
       </c>
       <c r="K214" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -20075,7 +20078,7 @@
         <v>366</v>
       </c>
       <c r="K215" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -20095,7 +20098,7 @@
         <v>367</v>
       </c>
       <c r="K216" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -20142,7 +20145,7 @@
         <v>372</v>
       </c>
       <c r="K218" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -20162,7 +20165,7 @@
         <v>373</v>
       </c>
       <c r="K219" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -20209,7 +20212,7 @@
         <v>378</v>
       </c>
       <c r="K221" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -20229,7 +20232,7 @@
         <v>380</v>
       </c>
       <c r="K222" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -20256,7 +20259,7 @@
         <v>223</v>
       </c>
       <c r="K223" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -20276,7 +20279,7 @@
         <v>4812</v>
       </c>
       <c r="K224" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -20296,7 +20299,7 @@
         <v>385</v>
       </c>
       <c r="K225" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -20316,7 +20319,7 @@
         <v>387</v>
       </c>
       <c r="K226" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -20336,7 +20339,7 @@
         <v>389</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H227">
         <v>1</v>
@@ -20576,7 +20579,7 @@
         <v>407</v>
       </c>
       <c r="K236" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -20596,7 +20599,7 @@
         <v>408</v>
       </c>
       <c r="K237" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -20616,7 +20619,7 @@
         <v>602113</v>
       </c>
       <c r="K238" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -20636,7 +20639,7 @@
         <v>411</v>
       </c>
       <c r="K239" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -20656,7 +20659,7 @@
         <v>414</v>
       </c>
       <c r="K240" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -20949,7 +20952,7 @@
         <v>74</v>
       </c>
       <c r="K251" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -20976,7 +20979,7 @@
         <v>75</v>
       </c>
       <c r="K252" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -21003,7 +21006,7 @@
         <v>76</v>
       </c>
       <c r="K253" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -21030,7 +21033,7 @@
         <v>77</v>
       </c>
       <c r="K254" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -21057,7 +21060,7 @@
         <v>94</v>
       </c>
       <c r="K255" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -21084,7 +21087,7 @@
         <v>118</v>
       </c>
       <c r="K256" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -21111,7 +21114,7 @@
         <v>119</v>
       </c>
       <c r="K257" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -21138,7 +21141,7 @@
         <v>128</v>
       </c>
       <c r="K258" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -21165,7 +21168,7 @@
         <v>178</v>
       </c>
       <c r="K259" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -21185,7 +21188,7 @@
         <v>444</v>
       </c>
       <c r="K260" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -21205,7 +21208,7 @@
         <v>446</v>
       </c>
       <c r="K261" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -21225,7 +21228,7 @@
         <v>448</v>
       </c>
       <c r="K262" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -21245,7 +21248,7 @@
         <v>450</v>
       </c>
       <c r="K263" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -21272,7 +21275,7 @@
         <v>185</v>
       </c>
       <c r="K264" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -21292,7 +21295,7 @@
         <v>454</v>
       </c>
       <c r="K265" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -21312,7 +21315,7 @@
         <v>456</v>
       </c>
       <c r="K266" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -21332,7 +21335,7 @@
         <v>459</v>
       </c>
       <c r="K267" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -21352,7 +21355,7 @@
         <v>462</v>
       </c>
       <c r="K268" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -21372,7 +21375,7 @@
         <v>463</v>
       </c>
       <c r="K269" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -21392,7 +21395,7 @@
         <v>466</v>
       </c>
       <c r="K270" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -21412,7 +21415,7 @@
         <v>468</v>
       </c>
       <c r="K271" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -21432,7 +21435,7 @@
         <v>470</v>
       </c>
       <c r="K272" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -21452,7 +21455,7 @@
         <v>471</v>
       </c>
       <c r="K273" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -21472,7 +21475,7 @@
         <v>474</v>
       </c>
       <c r="K274" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -21492,7 +21495,7 @@
         <v>476</v>
       </c>
       <c r="K275" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -21512,7 +21515,7 @@
         <v>477</v>
       </c>
       <c r="K276" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -21532,7 +21535,7 @@
         <v>478</v>
       </c>
       <c r="K277" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -21552,7 +21555,7 @@
         <v>479</v>
       </c>
       <c r="K278" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -21572,7 +21575,7 @@
         <v>476</v>
       </c>
       <c r="K279" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -21592,7 +21595,7 @@
         <v>480</v>
       </c>
       <c r="K280" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -21612,7 +21615,7 @@
         <v>481</v>
       </c>
       <c r="K281" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -21632,7 +21635,7 @@
         <v>483</v>
       </c>
       <c r="K282" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -21652,7 +21655,7 @@
         <v>484</v>
       </c>
       <c r="K283" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -21672,7 +21675,7 @@
         <v>485</v>
       </c>
       <c r="K284" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -21692,7 +21695,7 @@
         <v>486</v>
       </c>
       <c r="K285" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -21712,7 +21715,7 @@
         <v>488</v>
       </c>
       <c r="K286" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -21732,7 +21735,7 @@
         <v>489</v>
       </c>
       <c r="K287" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -21752,7 +21755,7 @@
         <v>490</v>
       </c>
       <c r="K288" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -21772,7 +21775,7 @@
         <v>491</v>
       </c>
       <c r="K289" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -21792,7 +21795,7 @@
         <v>493</v>
       </c>
       <c r="K290" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -21812,7 +21815,7 @@
         <v>496</v>
       </c>
       <c r="K291" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -21832,7 +21835,7 @@
         <v>497</v>
       </c>
       <c r="K292" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
@@ -21852,7 +21855,7 @@
         <v>499</v>
       </c>
       <c r="K293" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
@@ -21872,7 +21875,7 @@
         <v>502</v>
       </c>
       <c r="K294" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
@@ -21899,7 +21902,7 @@
         <v>145</v>
       </c>
       <c r="K295" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -21919,7 +21922,7 @@
         <v>4918700</v>
       </c>
       <c r="K296" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
@@ -21939,7 +21942,7 @@
         <v>508</v>
       </c>
       <c r="K297" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -21959,7 +21962,7 @@
         <v>510</v>
       </c>
       <c r="K298" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -21986,7 +21989,7 @@
         <v>206</v>
       </c>
       <c r="K299" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -22033,7 +22036,7 @@
         <v>3005213</v>
       </c>
       <c r="K301" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -22053,7 +22056,7 @@
         <v>519</v>
       </c>
       <c r="K302" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -22080,7 +22083,7 @@
         <v>149</v>
       </c>
       <c r="K303" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -22107,7 +22110,7 @@
         <v>130</v>
       </c>
       <c r="K304" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -22127,7 +22130,7 @@
         <v>525</v>
       </c>
       <c r="K305" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -22147,7 +22150,7 @@
         <v>527</v>
       </c>
       <c r="K306" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
@@ -22167,7 +22170,7 @@
         <v>530</v>
       </c>
       <c r="K307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -22187,7 +22190,7 @@
         <v>533</v>
       </c>
       <c r="K308" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -22207,7 +22210,7 @@
         <v>535</v>
       </c>
       <c r="K309" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -22227,7 +22230,7 @@
         <v>537</v>
       </c>
       <c r="K310" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -22254,7 +22257,7 @@
         <v>126</v>
       </c>
       <c r="K311" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -22281,7 +22284,7 @@
         <v>164</v>
       </c>
       <c r="K312" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -22307,7 +22310,7 @@
         <v>91</v>
       </c>
       <c r="K313" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -22327,7 +22330,7 @@
         <v>544</v>
       </c>
       <c r="K314" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -22347,7 +22350,7 @@
         <v>545</v>
       </c>
       <c r="K315" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
@@ -22374,7 +22377,7 @@
         <v>99</v>
       </c>
       <c r="K316" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
@@ -22401,7 +22404,7 @@
         <v>72</v>
       </c>
       <c r="K317" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
@@ -22428,7 +22431,7 @@
         <v>129</v>
       </c>
       <c r="K318" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
@@ -22455,7 +22458,7 @@
         <v>200</v>
       </c>
       <c r="K319" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
@@ -22482,7 +22485,7 @@
         <v>92</v>
       </c>
       <c r="K320" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
@@ -22509,7 +22512,7 @@
         <v>165</v>
       </c>
       <c r="K321" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
@@ -22536,7 +22539,7 @@
         <v>127</v>
       </c>
       <c r="K322" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
@@ -22770,7 +22773,7 @@
         <v>571</v>
       </c>
       <c r="K331" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
@@ -22796,7 +22799,7 @@
         <v>89</v>
       </c>
       <c r="K332" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
@@ -22816,7 +22819,7 @@
         <v>575</v>
       </c>
       <c r="K333" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
@@ -22836,7 +22839,7 @@
         <v>576</v>
       </c>
       <c r="K334" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
@@ -22856,7 +22859,7 @@
         <v>578</v>
       </c>
       <c r="K335" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
@@ -22876,7 +22879,7 @@
         <v>580</v>
       </c>
       <c r="K336" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
@@ -22896,7 +22899,7 @@
         <v>582</v>
       </c>
       <c r="K337" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
@@ -22916,7 +22919,7 @@
         <v>97747</v>
       </c>
       <c r="K338" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
@@ -22936,7 +22939,7 @@
         <v>1331</v>
       </c>
       <c r="K339" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
@@ -22956,7 +22959,7 @@
         <v>1455</v>
       </c>
       <c r="K340" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
@@ -22976,7 +22979,7 @@
         <v>588</v>
       </c>
       <c r="K341" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
@@ -22996,7 +22999,7 @@
         <v>591</v>
       </c>
       <c r="K342" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
@@ -23016,7 +23019,7 @@
         <v>593</v>
       </c>
       <c r="K343" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
@@ -23036,7 +23039,7 @@
         <v>595</v>
       </c>
       <c r="K344" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
@@ -23056,7 +23059,7 @@
         <v>598</v>
       </c>
       <c r="K345" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
@@ -23064,7 +23067,7 @@
         <v>343</v>
       </c>
       <c r="B346" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -23076,7 +23079,7 @@
         <v>598</v>
       </c>
       <c r="K346" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
@@ -23096,7 +23099,7 @@
         <v>598</v>
       </c>
       <c r="K347" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -23143,7 +23146,7 @@
         <v>606</v>
       </c>
       <c r="K349" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
@@ -23170,7 +23173,7 @@
         <v>105</v>
       </c>
       <c r="K350" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -23190,7 +23193,7 @@
         <v>611</v>
       </c>
       <c r="K351" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
@@ -23210,7 +23213,7 @@
         <v>612</v>
       </c>
       <c r="K352" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
@@ -23230,7 +23233,7 @@
         <v>614</v>
       </c>
       <c r="K353" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
@@ -23250,7 +23253,7 @@
         <v>615</v>
       </c>
       <c r="K354" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
@@ -23270,7 +23273,7 @@
         <v>616</v>
       </c>
       <c r="K355" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
@@ -23290,7 +23293,7 @@
         <v>619</v>
       </c>
       <c r="K356" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
@@ -23310,7 +23313,7 @@
         <v>621</v>
       </c>
       <c r="K357" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
@@ -23330,7 +23333,7 @@
         <v>622</v>
       </c>
       <c r="K358" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
@@ -23350,7 +23353,7 @@
         <v>624</v>
       </c>
       <c r="K359" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
@@ -23370,7 +23373,7 @@
         <v>627</v>
       </c>
       <c r="K360" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
@@ -23397,7 +23400,7 @@
         <v>123</v>
       </c>
       <c r="K361" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
@@ -23424,7 +23427,7 @@
         <v>124</v>
       </c>
       <c r="K362" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
@@ -23451,7 +23454,7 @@
         <v>125</v>
       </c>
       <c r="K363" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
@@ -23478,7 +23481,7 @@
         <v>167</v>
       </c>
       <c r="K364" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
@@ -23505,7 +23508,7 @@
         <v>168</v>
       </c>
       <c r="K365" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
@@ -23525,7 +23528,7 @@
         <v>639</v>
       </c>
       <c r="K366" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
@@ -23545,7 +23548,7 @@
         <v>641</v>
       </c>
       <c r="K367" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
@@ -23565,7 +23568,7 @@
         <v>642</v>
       </c>
       <c r="K368" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -23592,7 +23595,7 @@
         <v>85</v>
       </c>
       <c r="K369" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
@@ -23606,7 +23609,7 @@
         <v>1</v>
       </c>
       <c r="K370" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
@@ -23620,7 +23623,7 @@
         <v>1</v>
       </c>
       <c r="K371" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
@@ -23662,7 +23665,7 @@
         <v>84</v>
       </c>
       <c r="K373" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
@@ -23683,7 +23686,7 @@
         <v>98</v>
       </c>
       <c r="K374" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
@@ -23704,7 +23707,7 @@
         <v>81</v>
       </c>
       <c r="K375" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
@@ -23725,7 +23728,7 @@
         <v>235</v>
       </c>
       <c r="K376" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
@@ -23739,7 +23742,7 @@
         <v>1</v>
       </c>
       <c r="K377" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
@@ -23753,7 +23756,7 @@
         <v>1</v>
       </c>
       <c r="K378" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
@@ -23773,7 +23776,7 @@
         <v>656</v>
       </c>
       <c r="K379" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
@@ -23793,7 +23796,7 @@
         <v>658</v>
       </c>
       <c r="K380" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
@@ -23813,7 +23816,7 @@
         <v>660</v>
       </c>
       <c r="K381" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
@@ -23833,7 +23836,7 @@
         <v>662</v>
       </c>
       <c r="K382" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
@@ -23886,7 +23889,7 @@
         <v>198</v>
       </c>
       <c r="K384" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
@@ -23913,7 +23916,7 @@
         <v>199</v>
       </c>
       <c r="K385" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
@@ -23933,7 +23936,7 @@
         <v>669</v>
       </c>
       <c r="K386" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
@@ -23953,7 +23956,7 @@
         <v>671</v>
       </c>
       <c r="K387" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
@@ -23973,7 +23976,7 @@
         <v>672</v>
       </c>
       <c r="K388" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
@@ -24014,7 +24017,7 @@
         <v>1</v>
       </c>
       <c r="K390" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
@@ -24028,7 +24031,7 @@
         <v>1</v>
       </c>
       <c r="K391" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
@@ -24042,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="K392" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
@@ -24063,7 +24066,7 @@
         <v>201</v>
       </c>
       <c r="K393" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
@@ -24077,7 +24080,7 @@
         <v>1</v>
       </c>
       <c r="K394" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
@@ -24091,7 +24094,7 @@
         <v>1</v>
       </c>
       <c r="K395" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
@@ -24105,7 +24108,7 @@
         <v>1</v>
       </c>
       <c r="K396" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
@@ -24159,7 +24162,7 @@
         <v>1</v>
       </c>
       <c r="K399" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
@@ -24179,7 +24182,7 @@
         <v>685</v>
       </c>
       <c r="K400" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
@@ -24199,7 +24202,7 @@
         <v>685</v>
       </c>
       <c r="K401" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
@@ -24226,7 +24229,7 @@
         <v>96</v>
       </c>
       <c r="K402" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
@@ -24246,7 +24249,7 @@
         <v>111</v>
       </c>
       <c r="K403" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
@@ -24266,7 +24269,7 @@
         <v>685</v>
       </c>
       <c r="K404" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
@@ -24293,7 +24296,7 @@
         <v>86</v>
       </c>
       <c r="K405" t="s">
-        <v>869</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
@@ -24313,7 +24316,7 @@
         <v>685</v>
       </c>
       <c r="K406" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
@@ -24340,7 +24343,7 @@
         <v>175</v>
       </c>
       <c r="K407" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
@@ -24360,7 +24363,7 @@
         <v>111</v>
       </c>
       <c r="K408" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
@@ -24387,7 +24390,7 @@
         <v>97</v>
       </c>
       <c r="K409" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
@@ -24414,7 +24417,7 @@
         <v>187</v>
       </c>
       <c r="K410" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
@@ -24434,7 +24437,7 @@
         <v>698</v>
       </c>
       <c r="K411" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
@@ -24454,7 +24457,7 @@
         <v>111</v>
       </c>
       <c r="K412" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
@@ -24474,7 +24477,7 @@
         <v>702</v>
       </c>
       <c r="K413" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
@@ -24494,7 +24497,7 @@
         <v>704</v>
       </c>
       <c r="K414" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
@@ -24514,7 +24517,7 @@
         <v>706</v>
       </c>
       <c r="K415" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
@@ -24534,7 +24537,7 @@
         <v>707</v>
       </c>
       <c r="K416" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
@@ -24554,7 +24557,7 @@
         <v>710</v>
       </c>
       <c r="K417" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
@@ -24574,7 +24577,7 @@
         <v>712</v>
       </c>
       <c r="K418" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
@@ -24594,7 +24597,7 @@
         <v>715</v>
       </c>
       <c r="K419" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
@@ -24621,7 +24624,7 @@
         <v>181</v>
       </c>
       <c r="K420" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
@@ -24648,7 +24651,7 @@
         <v>153</v>
       </c>
       <c r="K421" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
@@ -24675,7 +24678,7 @@
         <v>191</v>
       </c>
       <c r="K422" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
@@ -24695,7 +24698,7 @@
         <v>722</v>
       </c>
       <c r="K423" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
@@ -24715,7 +24718,7 @@
         <v>111</v>
       </c>
       <c r="K424" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
@@ -24735,7 +24738,7 @@
         <v>726</v>
       </c>
       <c r="K425" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
@@ -24755,7 +24758,7 @@
         <v>729</v>
       </c>
       <c r="K426" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
@@ -24782,7 +24785,7 @@
         <v>177</v>
       </c>
       <c r="K427" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
@@ -24802,7 +24805,7 @@
         <v>734</v>
       </c>
       <c r="K428" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
@@ -24849,7 +24852,7 @@
         <v>739</v>
       </c>
       <c r="K430" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
@@ -24869,7 +24872,7 @@
         <v>742</v>
       </c>
       <c r="K431" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
@@ -24896,7 +24899,7 @@
         <v>205</v>
       </c>
       <c r="K432" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
@@ -24916,7 +24919,7 @@
         <v>747</v>
       </c>
       <c r="K433" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
@@ -24943,7 +24946,7 @@
       </c>
       <c r="J434" s="3"/>
       <c r="K434" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
@@ -24997,7 +25000,7 @@
       </c>
       <c r="J436" s="3"/>
       <c r="K436" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
@@ -25017,7 +25020,7 @@
         <v>756</v>
       </c>
       <c r="K437" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
@@ -25044,7 +25047,7 @@
         <v>190</v>
       </c>
       <c r="K438" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
@@ -25071,7 +25074,7 @@
         <v>220</v>
       </c>
       <c r="K439" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
@@ -25098,7 +25101,7 @@
       </c>
       <c r="J440" s="3"/>
       <c r="K440" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
@@ -25125,7 +25128,7 @@
         <v>135</v>
       </c>
       <c r="K441" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
@@ -25172,7 +25175,7 @@
         <v>767</v>
       </c>
       <c r="K443" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
@@ -25192,7 +25195,7 @@
         <v>769</v>
       </c>
       <c r="K444" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
@@ -25212,7 +25215,7 @@
         <v>772</v>
       </c>
       <c r="K445" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
@@ -25232,7 +25235,7 @@
         <v>111</v>
       </c>
       <c r="K446" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
@@ -25252,7 +25255,7 @@
         <v>775</v>
       </c>
       <c r="K447" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
@@ -25272,7 +25275,7 @@
         <v>777</v>
       </c>
       <c r="K448" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
@@ -25292,7 +25295,7 @@
         <v>777</v>
       </c>
       <c r="K449" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
@@ -25312,7 +25315,7 @@
         <v>772</v>
       </c>
       <c r="K450" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
@@ -25332,7 +25335,7 @@
         <v>772</v>
       </c>
       <c r="K451" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
@@ -25359,7 +25362,7 @@
       </c>
       <c r="J452" s="3"/>
       <c r="K452" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
@@ -25386,7 +25389,7 @@
       </c>
       <c r="J453" s="3"/>
       <c r="K453" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
@@ -25406,7 +25409,7 @@
         <v>671</v>
       </c>
       <c r="K454" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
@@ -25453,7 +25456,7 @@
         <v>111</v>
       </c>
       <c r="K456" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
@@ -25473,7 +25476,7 @@
         <v>111</v>
       </c>
       <c r="K457" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
@@ -25496,7 +25499,7 @@
         <v>31</v>
       </c>
       <c r="K458" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
